--- a/TextMining/EmotionDictionary.xlsx
+++ b/TextMining/EmotionDictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kob2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\handypotter\TextMining\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178045D1-1D72-408B-B52F-2EAA9464E1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9368"/>
+    <workbookView xWindow="1725" yWindow="2715" windowWidth="15045" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="442">
   <si>
     <t>가련하다</t>
   </si>
@@ -1230,9 +1231,6 @@
   </si>
   <si>
     <t>탐나다</t>
-  </si>
-  <si>
-    <t>이새끼</t>
   </si>
   <si>
     <t>흥미롭다</t>
@@ -1364,7 +1362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1816,42 +1814,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F693"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A322" sqref="A322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.1875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1891,7 +1889,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1911,7 +1909,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1951,7 +1949,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2011,15 +2009,15 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="D10" s="6">
         <v>32.5</v>
@@ -2031,7 +2029,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2071,7 +2069,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2151,7 +2149,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2211,7 +2209,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2311,7 +2309,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2371,7 +2369,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2431,7 +2429,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2451,7 +2449,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2471,7 +2469,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2491,7 +2489,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2511,7 +2509,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2531,7 +2529,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2551,7 +2549,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2571,15 +2569,15 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="D38" s="6">
         <v>37.5</v>
@@ -2591,7 +2589,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2611,7 +2609,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2631,7 +2629,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2651,7 +2649,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2731,7 +2729,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2751,15 +2749,15 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="D47" s="6">
         <v>70</v>
@@ -2771,7 +2769,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2791,15 +2789,15 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D49" s="6">
         <v>48.8</v>
@@ -2811,7 +2809,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2831,7 +2829,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2991,7 +2989,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3011,7 +3009,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3031,7 +3029,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3051,7 +3049,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3091,7 +3089,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3211,7 +3209,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3331,7 +3329,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3371,7 +3369,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3411,7 +3409,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3431,7 +3429,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3451,15 +3449,15 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D82" s="6">
         <v>51.2</v>
@@ -3471,7 +3469,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3511,7 +3509,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3551,7 +3549,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3611,7 +3609,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3651,7 +3649,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3691,7 +3689,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3731,7 +3729,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3771,7 +3769,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3831,7 +3829,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3851,7 +3849,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3871,15 +3869,15 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D103" s="6">
         <v>31.3</v>
@@ -3891,7 +3889,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3911,7 +3909,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -3931,7 +3929,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -3971,15 +3969,15 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D108" s="6">
         <v>37.5</v>
@@ -3991,7 +3989,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4031,7 +4029,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4071,7 +4069,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -4091,7 +4089,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4111,7 +4109,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -4131,7 +4129,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -4171,7 +4169,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -4211,7 +4209,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4231,15 +4229,15 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>120</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D121" s="6">
         <v>51.2</v>
@@ -4251,7 +4249,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4271,7 +4269,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -4291,7 +4289,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -4311,7 +4309,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -4331,7 +4329,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -4371,7 +4369,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -4411,7 +4409,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4471,7 +4469,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -4491,7 +4489,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4511,15 +4509,15 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D135" s="6">
         <v>36.299999999999997</v>
@@ -4531,7 +4529,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4551,15 +4549,15 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D137" s="6">
         <v>30</v>
@@ -4571,7 +4569,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -4611,7 +4609,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4631,7 +4629,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -4651,7 +4649,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -4711,7 +4709,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -4731,7 +4729,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -4751,15 +4749,15 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D147" s="6">
         <v>36.299999999999997</v>
@@ -4771,7 +4769,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -4911,7 +4909,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -4951,7 +4949,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4971,7 +4969,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -4991,7 +4989,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -5011,7 +5009,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -5031,7 +5029,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -5051,7 +5049,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -5091,7 +5089,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -5131,7 +5129,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -5151,7 +5149,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -5171,7 +5169,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -5231,7 +5229,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -5251,7 +5249,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -5271,7 +5269,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -5311,7 +5309,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -5331,7 +5329,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -5371,7 +5369,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -5391,7 +5389,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -5411,7 +5409,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -5431,7 +5429,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -5451,7 +5449,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -5471,7 +5469,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -5511,7 +5509,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -5531,7 +5529,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -5571,7 +5569,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -5591,7 +5589,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -5611,7 +5609,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -5631,7 +5629,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -5651,7 +5649,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -5691,7 +5689,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -5711,7 +5709,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -5731,7 +5729,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -5751,7 +5749,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -5791,7 +5789,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -5811,7 +5809,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -5831,7 +5829,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -5871,7 +5869,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -5891,7 +5889,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -5911,7 +5909,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -5931,7 +5929,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -5951,7 +5949,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -5971,7 +5969,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -5991,7 +5989,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -6011,7 +6009,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -6051,7 +6049,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -6071,7 +6069,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -6091,7 +6089,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -6111,7 +6109,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -6151,7 +6149,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -6171,7 +6169,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -6191,7 +6189,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -6251,7 +6249,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -6271,7 +6269,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -6291,7 +6289,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -6311,7 +6309,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -6351,7 +6349,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -6371,7 +6369,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -6391,7 +6389,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -6411,7 +6409,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -6431,7 +6429,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -6451,7 +6449,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -6471,7 +6469,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -6491,7 +6489,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -6511,7 +6509,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -6531,7 +6529,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -6591,7 +6589,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -6631,7 +6629,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -6651,7 +6649,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -6671,7 +6669,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -6711,15 +6709,15 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>244</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D245" s="6">
         <v>72.5</v>
@@ -6731,7 +6729,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -6771,7 +6769,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -6791,7 +6789,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -6811,7 +6809,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -6831,7 +6829,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -6851,7 +6849,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -6871,15 +6869,15 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D253" s="6">
         <v>77.5</v>
@@ -6891,7 +6889,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -6911,7 +6909,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -6931,7 +6929,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -6951,7 +6949,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -6971,7 +6969,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -7011,7 +7009,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -7031,7 +7029,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -7051,7 +7049,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -7071,7 +7069,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
         <v>262</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -7111,7 +7109,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -7131,7 +7129,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -7151,7 +7149,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
         <v>266</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -7191,7 +7189,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -7211,7 +7209,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -7231,7 +7229,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -7251,7 +7249,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -7311,7 +7309,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -7331,7 +7329,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -7351,7 +7349,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -7371,7 +7369,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -7391,7 +7389,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -7411,7 +7409,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -7431,7 +7429,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -7451,7 +7449,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -7471,7 +7469,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -7491,7 +7489,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -7531,7 +7529,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -7551,7 +7549,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -7571,7 +7569,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -7591,7 +7589,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -7631,7 +7629,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -7651,7 +7649,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -7671,7 +7669,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -7691,7 +7689,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -7711,7 +7709,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -7751,7 +7749,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -7771,7 +7769,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -7791,7 +7789,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -7811,7 +7809,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -7831,7 +7829,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -7851,7 +7849,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>302</v>
       </c>
@@ -7891,7 +7889,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -7911,7 +7909,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>304</v>
       </c>
@@ -7931,7 +7929,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -7951,7 +7949,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -7971,7 +7969,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -7991,7 +7989,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -8011,7 +8009,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -8031,7 +8029,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -8051,7 +8049,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -8071,7 +8069,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>312</v>
       </c>
@@ -8091,7 +8089,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -8111,7 +8109,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -8131,7 +8129,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -8151,7 +8149,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -8171,7 +8169,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -8191,7 +8189,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -8231,7 +8229,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -8251,2107 +8249,2107 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A322" s="2">
+    <row r="322" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="4">
         <v>321</v>
       </c>
-      <c r="B322" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D322" s="6">
-        <v>78.8</v>
-      </c>
-      <c r="E322" s="6">
-        <v>6.75</v>
-      </c>
-      <c r="F322" s="6">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B322" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D322" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="E322" s="5">
+        <v>6.04</v>
+      </c>
+      <c r="F322" s="5">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
         <v>322</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D323" s="5">
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="E323" s="5">
-        <v>6.04</v>
+        <v>6.15</v>
       </c>
       <c r="F323" s="5">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
-      <c r="B324" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D324" s="5">
-        <v>70</v>
-      </c>
-      <c r="E324" s="5">
-        <v>6.15</v>
-      </c>
-      <c r="F324" s="5">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B324" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324" s="6">
+        <v>77.5</v>
+      </c>
+      <c r="E324" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="F324" s="6">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
         <v>324</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D325" s="6">
-        <v>77.5</v>
+        <v>61.3</v>
       </c>
       <c r="E325" s="6">
-        <v>5.28</v>
+        <v>5.24</v>
       </c>
       <c r="F325" s="6">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
-      <c r="B326" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" s="6">
-        <v>61.3</v>
-      </c>
-      <c r="E326" s="6">
-        <v>5.24</v>
-      </c>
-      <c r="F326" s="6">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B326" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D326" s="5">
+        <v>75</v>
+      </c>
+      <c r="E326" s="5">
+        <v>7.58</v>
+      </c>
+      <c r="F326" s="5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
         <v>326</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D327" s="5">
-        <v>75</v>
+        <v>66.3</v>
       </c>
       <c r="E327" s="5">
-        <v>7.58</v>
+        <v>6.87</v>
       </c>
       <c r="F327" s="5">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
-      <c r="B328" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D328" s="5">
-        <v>66.3</v>
-      </c>
-      <c r="E328" s="5">
-        <v>6.87</v>
-      </c>
-      <c r="F328" s="5">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B328" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D328" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="E328" s="6">
+        <v>6.68</v>
+      </c>
+      <c r="F328" s="6">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
         <v>328</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="D329" s="6">
-        <v>72.5</v>
+        <v>93.8</v>
       </c>
       <c r="E329" s="6">
-        <v>6.68</v>
+        <v>8.68</v>
       </c>
       <c r="F329" s="6">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>370</v>
+        <v>117</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="D330" s="6">
-        <v>93.8</v>
+        <v>90</v>
       </c>
       <c r="E330" s="6">
-        <v>8.68</v>
+        <v>7.29</v>
       </c>
       <c r="F330" s="6">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
         <v>330</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>117</v>
+        <v>406</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="D331" s="6">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="E331" s="6">
-        <v>7.29</v>
+        <v>6.86</v>
       </c>
       <c r="F331" s="6">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D332" s="6">
-        <v>77.5</v>
+        <v>73.8</v>
       </c>
       <c r="E332" s="6">
-        <v>6.86</v>
+        <v>5.3</v>
       </c>
       <c r="F332" s="6">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>332</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>409</v>
+        <v>185</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="D333" s="6">
-        <v>73.8</v>
+        <v>63.7</v>
       </c>
       <c r="E333" s="6">
-        <v>5.3</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F333" s="6">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D334" s="6">
-        <v>63.7</v>
+        <v>86.3</v>
       </c>
       <c r="E334" s="6">
-        <v>5.0599999999999996</v>
+        <v>7.45</v>
       </c>
       <c r="F334" s="6">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>334</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D335" s="6">
-        <v>86.3</v>
+        <v>82.5</v>
       </c>
       <c r="E335" s="6">
-        <v>7.45</v>
+        <v>7.04</v>
       </c>
       <c r="F335" s="6">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D336" s="6">
-        <v>82.5</v>
+        <v>72.5</v>
       </c>
       <c r="E336" s="6">
-        <v>7.04</v>
+        <v>5.81</v>
       </c>
       <c r="F336" s="6">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>336</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D337" s="6">
-        <v>72.5</v>
+        <v>60</v>
       </c>
       <c r="E337" s="6">
-        <v>5.81</v>
+        <v>5.24</v>
       </c>
       <c r="F337" s="6">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D338" s="6">
-        <v>60</v>
+        <v>42.5</v>
       </c>
       <c r="E338" s="6">
-        <v>5.24</v>
+        <v>5.31</v>
       </c>
       <c r="F338" s="6">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>338</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D339" s="6">
-        <v>42.5</v>
+        <v>77.5</v>
       </c>
       <c r="E339" s="6">
-        <v>5.31</v>
+        <v>5.98</v>
       </c>
       <c r="F339" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D340" s="6">
-        <v>77.5</v>
+        <v>88.8</v>
       </c>
       <c r="E340" s="6">
-        <v>5.98</v>
+        <v>6.61</v>
       </c>
       <c r="F340" s="6">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
         <v>340</v>
       </c>
-      <c r="B341" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D341" s="6">
-        <v>88.8</v>
-      </c>
-      <c r="E341" s="6">
-        <v>6.61</v>
-      </c>
-      <c r="F341" s="6">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B341" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D341" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="E341" s="5">
+        <v>4.63</v>
+      </c>
+      <c r="F341" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
-      <c r="B342" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D342" s="5">
-        <v>47.5</v>
-      </c>
-      <c r="E342" s="5">
-        <v>4.63</v>
-      </c>
-      <c r="F342" s="5">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B342" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D342" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E342" s="6">
+        <v>9.07</v>
+      </c>
+      <c r="F342" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
         <v>342</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>432</v>
+        <v>3</v>
       </c>
       <c r="D343" s="6">
-        <v>38.799999999999997</v>
+        <v>100</v>
       </c>
       <c r="E343" s="6">
-        <v>9.07</v>
+        <v>7.41</v>
       </c>
       <c r="F343" s="6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344" s="6">
-        <v>100</v>
+        <v>88.8</v>
       </c>
       <c r="E344" s="6">
-        <v>7.41</v>
+        <v>6.62</v>
       </c>
       <c r="F344" s="6">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
         <v>344</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D345" s="6">
-        <v>88.8</v>
+        <v>85</v>
       </c>
       <c r="E345" s="6">
-        <v>6.62</v>
+        <v>4.88</v>
       </c>
       <c r="F345" s="6">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D346" s="6">
-        <v>85</v>
+        <v>67.5</v>
       </c>
       <c r="E346" s="6">
-        <v>4.88</v>
+        <v>6.64</v>
       </c>
       <c r="F346" s="6">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
         <v>346</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D347" s="6">
-        <v>67.5</v>
+        <v>46.3</v>
       </c>
       <c r="E347" s="6">
-        <v>6.64</v>
+        <v>4.26</v>
       </c>
       <c r="F347" s="6">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D348" s="6">
-        <v>46.3</v>
+        <v>95</v>
       </c>
       <c r="E348" s="6">
-        <v>4.26</v>
+        <v>8.26</v>
       </c>
       <c r="F348" s="6">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
         <v>348</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>121</v>
+        <v>412</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="D349" s="6">
-        <v>95</v>
+        <v>77.5</v>
       </c>
       <c r="E349" s="6">
-        <v>8.26</v>
+        <v>8.41</v>
       </c>
       <c r="F349" s="6">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="D350" s="6">
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="E350" s="6">
-        <v>8.41</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F350" s="6">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
         <v>350</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>346</v>
       </c>
       <c r="D351" s="6">
-        <v>87.5</v>
+        <v>76.3</v>
       </c>
       <c r="E351" s="6">
-        <v>8.9499999999999993</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="F351" s="6">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="D352" s="6">
-        <v>76.3</v>
+        <v>66.3</v>
       </c>
       <c r="E352" s="6">
-        <v>8.3699999999999992</v>
+        <v>7.05</v>
       </c>
       <c r="F352" s="6">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
         <v>352</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>406</v>
+        <v>295</v>
       </c>
       <c r="D353" s="6">
-        <v>66.3</v>
+        <v>58.8</v>
       </c>
       <c r="E353" s="6">
-        <v>7.05</v>
+        <v>5.65</v>
       </c>
       <c r="F353" s="6">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="D354" s="6">
-        <v>58.8</v>
+        <v>76.3</v>
       </c>
       <c r="E354" s="6">
-        <v>5.65</v>
+        <v>7.11</v>
       </c>
       <c r="F354" s="6">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
         <v>354</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="D355" s="6">
-        <v>76.3</v>
+        <v>97.5</v>
       </c>
       <c r="E355" s="6">
-        <v>7.11</v>
+        <v>9.15</v>
       </c>
       <c r="F355" s="6">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D356" s="6">
-        <v>97.5</v>
+        <v>83.8</v>
       </c>
       <c r="E356" s="6">
-        <v>9.15</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F356" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
         <v>356</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D357" s="6">
-        <v>83.8</v>
+        <v>60</v>
       </c>
       <c r="E357" s="6">
-        <v>8.0299999999999994</v>
+        <v>5.26</v>
       </c>
       <c r="F357" s="6">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="D358" s="6">
-        <v>60</v>
+        <v>87.5</v>
       </c>
       <c r="E358" s="6">
-        <v>5.26</v>
+        <v>7.83</v>
       </c>
       <c r="F358" s="6">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
         <v>358</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="D359" s="6">
-        <v>87.5</v>
+        <v>81.3</v>
       </c>
       <c r="E359" s="6">
-        <v>7.83</v>
+        <v>6.57</v>
       </c>
       <c r="F359" s="6">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>359</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>422</v>
+        <v>207</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="D360" s="6">
-        <v>81.3</v>
+        <v>93.8</v>
       </c>
       <c r="E360" s="6">
-        <v>6.57</v>
+        <v>6.54</v>
       </c>
       <c r="F360" s="6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
         <v>360</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>207</v>
+        <v>428</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="D361" s="6">
-        <v>93.8</v>
+        <v>30</v>
       </c>
       <c r="E361" s="6">
-        <v>6.54</v>
+        <v>6.19</v>
       </c>
       <c r="F361" s="6">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>419</v>
+        <v>295</v>
       </c>
       <c r="D362" s="6">
-        <v>30</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E362" s="6">
-        <v>6.19</v>
+        <v>4.24</v>
       </c>
       <c r="F362" s="6">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
         <v>362</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>295</v>
+        <v>1</v>
       </c>
       <c r="D363" s="6">
-        <v>33.799999999999997</v>
+        <v>93.8</v>
       </c>
       <c r="E363" s="6">
-        <v>4.24</v>
+        <v>6.67</v>
       </c>
       <c r="F363" s="6">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D364" s="6">
-        <v>93.8</v>
+        <v>67.5</v>
       </c>
       <c r="E364" s="6">
-        <v>6.67</v>
+        <v>5.45</v>
       </c>
       <c r="F364" s="6">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
         <v>364</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D365" s="6">
-        <v>67.5</v>
+        <v>80</v>
       </c>
       <c r="E365" s="6">
-        <v>5.45</v>
+        <v>6.71</v>
       </c>
       <c r="F365" s="6">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>365</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D366" s="6">
-        <v>80</v>
+        <v>66.3</v>
       </c>
       <c r="E366" s="6">
-        <v>6.71</v>
+        <v>5.22</v>
       </c>
       <c r="F366" s="6">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
         <v>366</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D367" s="6">
-        <v>66.3</v>
+        <v>37.5</v>
       </c>
       <c r="E367" s="6">
-        <v>5.22</v>
+        <v>4.33</v>
       </c>
       <c r="F367" s="6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D368" s="6">
-        <v>37.5</v>
+        <v>92.5</v>
       </c>
       <c r="E368" s="6">
-        <v>4.33</v>
+        <v>6.07</v>
       </c>
       <c r="F368" s="6">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
         <v>368</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D369" s="6">
-        <v>92.5</v>
+        <v>78.8</v>
       </c>
       <c r="E369" s="6">
-        <v>6.07</v>
+        <v>6.36</v>
       </c>
       <c r="F369" s="6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D370" s="6">
-        <v>78.8</v>
+        <v>81.3</v>
       </c>
       <c r="E370" s="6">
-        <v>6.36</v>
+        <v>6.82</v>
       </c>
       <c r="F370" s="6">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
         <v>370</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D371" s="6">
-        <v>81.3</v>
+        <v>66.3</v>
       </c>
       <c r="E371" s="6">
-        <v>6.82</v>
+        <v>6.28</v>
       </c>
       <c r="F371" s="6">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="D372" s="6">
-        <v>66.3</v>
+        <v>65</v>
       </c>
       <c r="E372" s="6">
-        <v>6.28</v>
+        <v>7.47</v>
       </c>
       <c r="F372" s="6">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
         <v>372</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D373" s="6">
-        <v>65</v>
+        <v>56.3</v>
       </c>
       <c r="E373" s="6">
-        <v>7.47</v>
+        <v>5.34</v>
       </c>
       <c r="F373" s="6">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D374" s="6">
-        <v>56.3</v>
+        <v>81.3</v>
       </c>
       <c r="E374" s="6">
-        <v>5.34</v>
+        <v>5.49</v>
       </c>
       <c r="F374" s="6">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
         <v>374</v>
       </c>
-      <c r="B375" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D375" s="6">
-        <v>81.3</v>
-      </c>
-      <c r="E375" s="6">
-        <v>5.49</v>
-      </c>
-      <c r="F375" s="6">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B375" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D375" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="E375" s="5">
+        <v>4.45</v>
+      </c>
+      <c r="F375" s="5">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
-      <c r="B376" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D376" s="5">
-        <v>48.8</v>
-      </c>
-      <c r="E376" s="5">
-        <v>4.45</v>
-      </c>
-      <c r="F376" s="5">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B376" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D376" s="6">
+        <v>75</v>
+      </c>
+      <c r="E376" s="6">
+        <v>8.49</v>
+      </c>
+      <c r="F376" s="6">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="4">
         <v>376</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>170</v>
+        <v>379</v>
       </c>
       <c r="D377" s="6">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="E377" s="6">
-        <v>8.49</v>
+        <v>6.03</v>
       </c>
       <c r="F377" s="6">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>399</v>
+        <v>229</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D378" s="6">
-        <v>37.5</v>
+        <v>83.8</v>
       </c>
       <c r="E378" s="6">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="F378" s="6">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
         <v>378</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>229</v>
+        <v>423</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D379" s="6">
-        <v>83.8</v>
+        <v>71.3</v>
       </c>
       <c r="E379" s="6">
-        <v>6.05</v>
+        <v>8.06</v>
       </c>
       <c r="F379" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>379</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D380" s="6">
-        <v>71.3</v>
+        <v>91.3</v>
       </c>
       <c r="E380" s="6">
-        <v>8.06</v>
+        <v>7.66</v>
       </c>
       <c r="F380" s="6">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="4">
         <v>380</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D381" s="6">
-        <v>91.3</v>
+        <v>63.7</v>
       </c>
       <c r="E381" s="6">
-        <v>7.66</v>
+        <v>5.05</v>
       </c>
       <c r="F381" s="6">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D382" s="6">
-        <v>63.7</v>
+        <v>68.8</v>
       </c>
       <c r="E382" s="6">
-        <v>5.05</v>
+        <v>6.97</v>
       </c>
       <c r="F382" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="4">
         <v>382</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>430</v>
+        <v>125</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="D383" s="6">
-        <v>68.8</v>
+        <v>65</v>
       </c>
       <c r="E383" s="6">
-        <v>6.97</v>
+        <v>5.79</v>
       </c>
       <c r="F383" s="6">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D384" s="6">
-        <v>65</v>
+        <v>71.3</v>
       </c>
       <c r="E384" s="6">
-        <v>5.79</v>
+        <v>5.07</v>
       </c>
       <c r="F384" s="6">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="4">
         <v>384</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D385" s="6">
-        <v>71.3</v>
+        <v>98.8</v>
       </c>
       <c r="E385" s="6">
-        <v>5.07</v>
+        <v>6.97</v>
       </c>
       <c r="F385" s="6">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D386" s="6">
-        <v>98.8</v>
+        <v>92.5</v>
       </c>
       <c r="E386" s="6">
-        <v>6.97</v>
+        <v>6.87</v>
       </c>
       <c r="F386" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
         <v>386</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D387" s="6">
-        <v>92.5</v>
+        <v>93.8</v>
       </c>
       <c r="E387" s="6">
-        <v>6.87</v>
+        <v>6.73</v>
       </c>
       <c r="F387" s="6">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="D388" s="6">
-        <v>93.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E388" s="6">
-        <v>6.73</v>
+        <v>3.89</v>
       </c>
       <c r="F388" s="6">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
         <v>388</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="D389" s="6">
-        <v>33.799999999999997</v>
+        <v>67.5</v>
       </c>
       <c r="E389" s="6">
-        <v>3.89</v>
+        <v>6.15</v>
       </c>
       <c r="F389" s="6">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D390" s="6">
-        <v>67.5</v>
+        <v>83.8</v>
       </c>
       <c r="E390" s="6">
-        <v>6.15</v>
+        <v>6.61</v>
       </c>
       <c r="F390" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
         <v>390</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D391" s="6">
-        <v>83.8</v>
+        <v>72.5</v>
       </c>
       <c r="E391" s="6">
-        <v>6.61</v>
+        <v>5.48</v>
       </c>
       <c r="F391" s="6">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D392" s="6">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
       <c r="E392" s="6">
-        <v>5.48</v>
+        <v>6.26</v>
       </c>
       <c r="F392" s="6">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
         <v>392</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D393" s="6">
-        <v>62.5</v>
+        <v>83.8</v>
       </c>
       <c r="E393" s="6">
         <v>6.26</v>
       </c>
       <c r="F393" s="6">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D394" s="6">
-        <v>83.8</v>
+        <v>70</v>
       </c>
       <c r="E394" s="6">
-        <v>6.26</v>
+        <v>7.32</v>
       </c>
       <c r="F394" s="6">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
         <v>394</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>401</v>
+        <v>137</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>379</v>
+        <v>3</v>
       </c>
       <c r="D395" s="6">
-        <v>70</v>
+        <v>98.8</v>
       </c>
       <c r="E395" s="6">
-        <v>7.32</v>
+        <v>7.77</v>
       </c>
       <c r="F395" s="6">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D396" s="6">
-        <v>98.8</v>
+        <v>88.8</v>
       </c>
       <c r="E396" s="6">
-        <v>7.77</v>
+        <v>7.49</v>
       </c>
       <c r="F396" s="6">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
         <v>396</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D397" s="6">
-        <v>88.8</v>
+        <v>81.3</v>
       </c>
       <c r="E397" s="6">
-        <v>7.49</v>
+        <v>6.18</v>
       </c>
       <c r="F397" s="6">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D398" s="6">
-        <v>81.3</v>
+        <v>93.8</v>
       </c>
       <c r="E398" s="6">
-        <v>6.18</v>
+        <v>6.79</v>
       </c>
       <c r="F398" s="6">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
         <v>398</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D399" s="6">
-        <v>93.8</v>
+        <v>68.8</v>
       </c>
       <c r="E399" s="6">
-        <v>6.79</v>
+        <v>5.25</v>
       </c>
       <c r="F399" s="6">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
-      <c r="B400" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D400" s="6">
-        <v>68.8</v>
-      </c>
-      <c r="E400" s="6">
-        <v>5.25</v>
-      </c>
-      <c r="F400" s="6">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B400" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D400" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="E400" s="5">
+        <v>7.04</v>
+      </c>
+      <c r="F400" s="5">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
         <v>400</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D401" s="5">
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="E401" s="5">
-        <v>7.04</v>
+        <v>6.16</v>
       </c>
       <c r="F401" s="5">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>401</v>
       </c>
-      <c r="B402" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D402" s="5">
-        <v>87.5</v>
-      </c>
-      <c r="E402" s="5">
-        <v>6.16</v>
-      </c>
-      <c r="F402" s="5">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B402" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D402" s="6">
+        <v>98.8</v>
+      </c>
+      <c r="E402" s="6">
+        <v>8.68</v>
+      </c>
+      <c r="F402" s="6">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
         <v>402</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="D403" s="6">
-        <v>98.8</v>
+        <v>52.5</v>
       </c>
       <c r="E403" s="6">
-        <v>8.68</v>
+        <v>6.01</v>
       </c>
       <c r="F403" s="6">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>403</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="D404" s="6">
-        <v>52.5</v>
+        <v>98.8</v>
       </c>
       <c r="E404" s="6">
-        <v>6.01</v>
+        <v>9.02</v>
       </c>
       <c r="F404" s="6">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
         <v>404</v>
       </c>
-      <c r="B405" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C405" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D405" s="6">
-        <v>98.8</v>
-      </c>
-      <c r="E405" s="6">
-        <v>9.02</v>
-      </c>
-      <c r="F405" s="6">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B405" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D405" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="E405" s="5">
+        <v>5.42</v>
+      </c>
+      <c r="F405" s="5">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>405</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D406" s="5">
-        <v>48.8</v>
+        <v>67.5</v>
       </c>
       <c r="E406" s="5">
-        <v>5.42</v>
+        <v>5.61</v>
       </c>
       <c r="F406" s="5">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
         <v>406</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D407" s="5">
-        <v>67.5</v>
+        <v>58.8</v>
       </c>
       <c r="E407" s="5">
-        <v>5.61</v>
+        <v>4.59</v>
       </c>
       <c r="F407" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>407</v>
       </c>
-      <c r="B408" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C408" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D408" s="5">
-        <v>58.8</v>
-      </c>
-      <c r="E408" s="5">
-        <v>4.59</v>
-      </c>
-      <c r="F408" s="5">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B408" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D408" s="6">
+        <v>76.3</v>
+      </c>
+      <c r="E408" s="6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F408" s="6">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
         <v>408</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="D409" s="6">
-        <v>76.3</v>
+        <v>85</v>
       </c>
       <c r="E409" s="6">
-        <v>4.8600000000000003</v>
+        <v>6.74</v>
       </c>
       <c r="F409" s="6">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>409</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="D410" s="6">
         <v>85</v>
       </c>
       <c r="E410" s="6">
-        <v>6.74</v>
+        <v>6.78</v>
       </c>
       <c r="F410" s="6">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
         <v>410</v>
       </c>
-      <c r="B411" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D411" s="6">
-        <v>85</v>
-      </c>
-      <c r="E411" s="6">
-        <v>6.78</v>
-      </c>
-      <c r="F411" s="6">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B411" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D411" s="5">
+        <v>83.8</v>
+      </c>
+      <c r="E411" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="F411" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>411</v>
       </c>
-      <c r="B412" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C412" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D412" s="5">
-        <v>83.8</v>
-      </c>
-      <c r="E412" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="F412" s="5">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B412" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D412" s="6">
+        <v>61.3</v>
+      </c>
+      <c r="E412" s="6">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F412" s="6">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
         <v>412</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D413" s="6">
-        <v>61.3</v>
+        <v>81.3</v>
       </c>
       <c r="E413" s="6">
-        <v>4.6399999999999997</v>
+        <v>6.92</v>
       </c>
       <c r="F413" s="6">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>413</v>
       </c>
-      <c r="B414" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C414" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D414" s="6">
-        <v>81.3</v>
-      </c>
-      <c r="E414" s="6">
-        <v>6.92</v>
-      </c>
-      <c r="F414" s="6">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B414" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D414" s="5">
+        <v>50</v>
+      </c>
+      <c r="E414" s="5">
+        <v>6.22</v>
+      </c>
+      <c r="F414" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
         <v>414</v>
       </c>
-      <c r="B415" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D415" s="5">
-        <v>50</v>
-      </c>
-      <c r="E415" s="5">
-        <v>6.22</v>
-      </c>
-      <c r="F415" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B415" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D415" s="6">
+        <v>90</v>
+      </c>
+      <c r="E415" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="F415" s="6">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>415</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="D416" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E416" s="6">
-        <v>8.25</v>
+        <v>8.34</v>
       </c>
       <c r="F416" s="6">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
         <v>416</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="D417" s="6">
-        <v>80</v>
+        <v>96.3</v>
       </c>
       <c r="E417" s="6">
-        <v>8.34</v>
+        <v>6.91</v>
       </c>
       <c r="F417" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>417</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D418" s="6">
-        <v>96.3</v>
+        <v>70</v>
       </c>
       <c r="E418" s="6">
-        <v>6.91</v>
+        <v>4.67</v>
       </c>
       <c r="F418" s="6">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
         <v>418</v>
       </c>
-      <c r="B419" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C419" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D419" s="6">
-        <v>70</v>
-      </c>
-      <c r="E419" s="6">
-        <v>4.67</v>
-      </c>
-      <c r="F419" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B419" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D419" s="5">
+        <v>95</v>
+      </c>
+      <c r="E419" s="5">
+        <v>6.54</v>
+      </c>
+      <c r="F419" s="5">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>419</v>
       </c>
-      <c r="B420" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D420" s="5">
-        <v>95</v>
-      </c>
-      <c r="E420" s="5">
-        <v>6.54</v>
-      </c>
-      <c r="F420" s="5">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B420" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D420" s="6">
+        <v>81.3</v>
+      </c>
+      <c r="E420" s="6">
+        <v>6.79</v>
+      </c>
+      <c r="F420" s="6">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
         <v>420</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="D421" s="6">
-        <v>81.3</v>
+        <v>92.5</v>
       </c>
       <c r="E421" s="6">
-        <v>6.79</v>
+        <v>7.18</v>
       </c>
       <c r="F421" s="6">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>421</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D422" s="6">
-        <v>92.5</v>
+        <v>93.8</v>
       </c>
       <c r="E422" s="6">
-        <v>7.18</v>
+        <v>7.72</v>
       </c>
       <c r="F422" s="6">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
         <v>422</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="D423" s="6">
-        <v>93.8</v>
+        <v>82.5</v>
       </c>
       <c r="E423" s="6">
-        <v>7.72</v>
+        <v>8.99</v>
       </c>
       <c r="F423" s="6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>423</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D424" s="6">
-        <v>82.5</v>
+        <v>56.3</v>
       </c>
       <c r="E424" s="6">
-        <v>8.99</v>
+        <v>6.72</v>
       </c>
       <c r="F424" s="6">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
         <v>424</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="D425" s="6">
-        <v>56.3</v>
+        <v>95</v>
       </c>
       <c r="E425" s="6">
-        <v>6.72</v>
+        <v>7.14</v>
       </c>
       <c r="F425" s="6">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" ht="31.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>425</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D426" s="6">
-        <v>95</v>
+        <v>83.8</v>
       </c>
       <c r="E426" s="6">
-        <v>7.14</v>
+        <v>5.61</v>
       </c>
       <c r="F426" s="6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
         <v>426</v>
       </c>
@@ -10371,841 +10369,821 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>427</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D428" s="6">
-        <v>83.8</v>
+        <v>95</v>
       </c>
       <c r="E428" s="6">
-        <v>5.61</v>
+        <v>5.76</v>
       </c>
       <c r="F428" s="6">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A429" s="4">
-        <v>428</v>
-      </c>
-      <c r="B429" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C429" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D429" s="6">
-        <v>95</v>
-      </c>
-      <c r="E429" s="6">
-        <v>5.76</v>
-      </c>
-      <c r="F429" s="6">
         <v>2.87</v>
       </c>
     </row>
-    <row r="430" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="16"/>
+    </row>
+    <row r="430" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B430" s="16"/>
     </row>
-    <row r="431" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B431" s="16"/>
     </row>
-    <row r="432" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B432" s="16"/>
     </row>
-    <row r="433" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="433" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B433" s="16"/>
     </row>
-    <row r="434" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="434" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B434" s="16"/>
     </row>
-    <row r="435" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="435" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B435" s="16"/>
     </row>
-    <row r="436" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="436" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B436" s="16"/>
     </row>
-    <row r="437" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="437" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B437" s="16"/>
     </row>
-    <row r="438" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="438" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B438" s="16"/>
     </row>
-    <row r="439" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="439" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B439" s="16"/>
     </row>
-    <row r="440" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="440" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B440" s="16"/>
     </row>
-    <row r="441" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="441" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B441" s="16"/>
     </row>
-    <row r="442" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="442" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B442" s="16"/>
     </row>
-    <row r="443" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="443" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B443" s="16"/>
     </row>
-    <row r="444" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="444" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B444" s="16"/>
     </row>
-    <row r="445" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="445" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B445" s="16"/>
     </row>
-    <row r="446" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="446" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B446" s="16"/>
     </row>
-    <row r="447" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="447" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B447" s="16"/>
     </row>
-    <row r="448" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="448" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B448" s="16"/>
     </row>
-    <row r="449" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="449" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B449" s="16"/>
     </row>
-    <row r="450" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="450" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B450" s="16"/>
     </row>
-    <row r="451" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="451" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B451" s="16"/>
     </row>
-    <row r="452" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="452" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B452" s="16"/>
     </row>
-    <row r="453" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="453" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B453" s="16"/>
     </row>
-    <row r="454" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="454" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B454" s="16"/>
     </row>
-    <row r="455" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="455" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B455" s="16"/>
     </row>
-    <row r="456" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="456" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B456" s="16"/>
     </row>
-    <row r="457" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="457" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B457" s="16"/>
     </row>
-    <row r="458" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="458" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B458" s="16"/>
     </row>
-    <row r="459" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="459" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B459" s="16"/>
     </row>
-    <row r="460" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="460" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B460" s="16"/>
     </row>
-    <row r="461" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="461" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B461" s="16"/>
     </row>
-    <row r="462" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="462" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B462" s="16"/>
     </row>
-    <row r="463" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="463" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B463" s="16"/>
     </row>
-    <row r="464" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="464" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B464" s="16"/>
     </row>
-    <row r="465" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="465" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B465" s="16"/>
     </row>
-    <row r="466" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="466" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B466" s="16"/>
     </row>
-    <row r="467" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="467" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B467" s="16"/>
     </row>
-    <row r="468" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="468" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B468" s="16"/>
     </row>
-    <row r="469" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="469" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B469" s="16"/>
     </row>
-    <row r="470" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="470" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B470" s="16"/>
     </row>
-    <row r="471" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="471" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B471" s="16"/>
     </row>
-    <row r="472" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="472" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B472" s="16"/>
     </row>
-    <row r="473" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="473" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B473" s="16"/>
     </row>
-    <row r="474" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="474" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B474" s="16"/>
     </row>
-    <row r="475" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="475" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B475" s="16"/>
     </row>
-    <row r="476" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="476" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B476" s="16"/>
     </row>
-    <row r="477" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="477" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B477" s="16"/>
     </row>
-    <row r="478" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="478" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B478" s="16"/>
     </row>
-    <row r="479" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="479" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B479" s="16"/>
     </row>
-    <row r="480" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="480" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B480" s="16"/>
     </row>
-    <row r="481" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="481" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B481" s="16"/>
     </row>
-    <row r="482" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="482" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B482" s="16"/>
     </row>
-    <row r="483" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="483" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B483" s="16"/>
     </row>
-    <row r="484" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="484" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B484" s="16"/>
     </row>
-    <row r="485" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="485" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B485" s="16"/>
     </row>
-    <row r="486" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="486" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B486" s="16"/>
     </row>
-    <row r="487" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="487" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B487" s="16"/>
     </row>
-    <row r="488" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="488" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B488" s="16"/>
     </row>
-    <row r="489" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="489" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B489" s="16"/>
     </row>
-    <row r="490" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="490" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B490" s="16"/>
     </row>
-    <row r="491" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="491" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B491" s="16"/>
     </row>
-    <row r="492" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="492" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B492" s="16"/>
     </row>
-    <row r="493" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="493" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B493" s="16"/>
     </row>
-    <row r="494" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="494" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B494" s="16"/>
     </row>
-    <row r="495" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="495" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B495" s="16"/>
     </row>
-    <row r="496" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="496" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B496" s="16"/>
     </row>
-    <row r="497" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="497" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B497" s="16"/>
     </row>
-    <row r="498" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="498" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B498" s="16"/>
     </row>
-    <row r="499" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="499" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B499" s="16"/>
     </row>
-    <row r="500" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="500" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B500" s="16"/>
     </row>
-    <row r="501" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="501" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B501" s="16"/>
     </row>
-    <row r="502" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="502" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B502" s="16"/>
     </row>
-    <row r="503" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="503" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B503" s="16"/>
     </row>
-    <row r="504" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="504" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B504" s="16"/>
     </row>
-    <row r="505" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="505" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B505" s="16"/>
     </row>
-    <row r="506" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="506" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B506" s="16"/>
     </row>
-    <row r="507" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="507" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B507" s="16"/>
     </row>
-    <row r="508" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="508" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B508" s="16"/>
     </row>
-    <row r="509" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="509" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B509" s="16"/>
     </row>
-    <row r="510" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="510" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B510" s="16"/>
     </row>
-    <row r="511" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="511" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B511" s="16"/>
     </row>
-    <row r="512" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="512" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B512" s="16"/>
     </row>
-    <row r="513" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="513" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B513" s="16"/>
     </row>
-    <row r="514" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="514" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B514" s="16"/>
     </row>
-    <row r="515" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="515" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B515" s="16"/>
     </row>
-    <row r="516" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="516" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B516" s="16"/>
     </row>
-    <row r="517" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="517" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B517" s="16"/>
     </row>
-    <row r="518" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="518" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B518" s="16"/>
     </row>
-    <row r="519" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="519" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B519" s="16"/>
     </row>
-    <row r="520" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="520" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B520" s="16"/>
     </row>
-    <row r="521" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="521" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B521" s="16"/>
     </row>
-    <row r="522" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="522" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B522" s="16"/>
     </row>
-    <row r="523" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="523" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B523" s="16"/>
     </row>
-    <row r="524" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="524" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B524" s="16"/>
     </row>
-    <row r="525" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="525" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B525" s="16"/>
     </row>
-    <row r="526" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="526" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B526" s="16"/>
     </row>
-    <row r="527" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="527" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B527" s="16"/>
     </row>
-    <row r="528" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="528" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B528" s="16"/>
     </row>
-    <row r="529" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="529" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B529" s="16"/>
     </row>
-    <row r="530" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="530" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B530" s="16"/>
     </row>
-    <row r="531" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="531" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B531" s="16"/>
     </row>
-    <row r="532" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="532" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B532" s="16"/>
     </row>
-    <row r="533" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="533" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B533" s="16"/>
     </row>
-    <row r="534" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="534" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B534" s="16"/>
     </row>
-    <row r="535" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="535" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B535" s="16"/>
     </row>
-    <row r="536" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="536" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B536" s="16"/>
     </row>
-    <row r="537" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="537" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B537" s="16"/>
     </row>
-    <row r="538" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="538" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B538" s="16"/>
     </row>
-    <row r="539" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="539" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B539" s="16"/>
     </row>
-    <row r="540" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="540" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B540" s="16"/>
     </row>
-    <row r="541" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="541" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B541" s="16"/>
     </row>
-    <row r="542" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="542" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B542" s="16"/>
     </row>
-    <row r="543" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="543" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B543" s="16"/>
     </row>
-    <row r="544" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="544" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B544" s="16"/>
     </row>
-    <row r="545" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="545" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B545" s="16"/>
     </row>
-    <row r="546" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="546" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B546" s="16"/>
     </row>
-    <row r="547" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="547" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B547" s="16"/>
     </row>
-    <row r="548" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="548" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B548" s="16"/>
     </row>
-    <row r="549" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="549" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B549" s="16"/>
     </row>
-    <row r="550" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="550" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B550" s="16"/>
     </row>
-    <row r="551" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="551" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B551" s="16"/>
     </row>
-    <row r="552" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="552" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B552" s="16"/>
     </row>
-    <row r="553" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="553" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B553" s="16"/>
     </row>
-    <row r="554" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="554" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B554" s="16"/>
     </row>
-    <row r="555" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="555" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B555" s="16"/>
     </row>
-    <row r="556" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="556" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B556" s="16"/>
     </row>
-    <row r="557" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="557" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B557" s="16"/>
     </row>
-    <row r="558" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="558" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B558" s="16"/>
     </row>
-    <row r="559" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="559" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B559" s="16"/>
     </row>
-    <row r="560" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="560" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B560" s="16"/>
     </row>
-    <row r="561" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="561" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B561" s="16"/>
     </row>
-    <row r="562" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="562" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B562" s="16"/>
     </row>
-    <row r="563" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="563" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B563" s="16"/>
     </row>
-    <row r="564" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="564" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B564" s="16"/>
     </row>
-    <row r="565" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="565" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B565" s="16"/>
     </row>
-    <row r="566" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="566" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B566" s="16"/>
     </row>
-    <row r="567" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="567" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B567" s="16"/>
     </row>
-    <row r="568" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="568" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B568" s="16"/>
     </row>
-    <row r="569" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="569" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B569" s="16"/>
     </row>
-    <row r="570" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="570" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B570" s="16"/>
     </row>
-    <row r="571" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="571" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B571" s="16"/>
     </row>
-    <row r="572" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="572" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B572" s="16"/>
     </row>
-    <row r="573" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="573" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B573" s="16"/>
     </row>
-    <row r="574" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="574" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B574" s="16"/>
     </row>
-    <row r="575" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="575" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B575" s="16"/>
     </row>
-    <row r="576" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="576" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B576" s="16"/>
     </row>
-    <row r="577" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="577" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B577" s="16"/>
     </row>
-    <row r="578" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="578" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B578" s="16"/>
     </row>
-    <row r="579" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="579" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B579" s="16"/>
     </row>
-    <row r="580" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="580" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B580" s="16"/>
     </row>
-    <row r="581" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="581" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B581" s="16"/>
     </row>
-    <row r="582" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="582" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B582" s="16"/>
     </row>
-    <row r="583" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="583" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B583" s="16"/>
     </row>
-    <row r="584" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="584" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B584" s="16"/>
     </row>
-    <row r="585" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="585" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B585" s="16"/>
     </row>
-    <row r="586" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="586" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B586" s="16"/>
     </row>
-    <row r="587" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="587" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B587" s="16"/>
     </row>
-    <row r="588" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="588" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B588" s="16"/>
     </row>
-    <row r="589" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="589" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B589" s="16"/>
     </row>
-    <row r="590" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="590" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B590" s="16"/>
     </row>
-    <row r="591" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="591" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B591" s="16"/>
     </row>
-    <row r="592" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="592" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B592" s="16"/>
     </row>
-    <row r="593" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="593" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B593" s="16"/>
     </row>
-    <row r="594" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="594" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B594" s="16"/>
     </row>
-    <row r="595" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="595" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B595" s="16"/>
     </row>
-    <row r="596" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="596" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B596" s="16"/>
     </row>
-    <row r="597" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="597" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B597" s="16"/>
     </row>
-    <row r="598" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="598" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B598" s="16"/>
     </row>
-    <row r="599" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="599" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B599" s="16"/>
     </row>
-    <row r="600" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="600" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B600" s="16"/>
     </row>
-    <row r="601" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="601" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B601" s="16"/>
     </row>
-    <row r="602" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="602" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B602" s="16"/>
     </row>
-    <row r="603" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="603" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B603" s="16"/>
     </row>
-    <row r="604" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="604" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B604" s="16"/>
     </row>
-    <row r="605" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="605" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B605" s="16"/>
     </row>
-    <row r="606" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="606" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B606" s="16"/>
     </row>
-    <row r="607" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="607" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B607" s="16"/>
     </row>
-    <row r="608" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="608" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B608" s="16"/>
     </row>
-    <row r="609" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="609" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B609" s="16"/>
     </row>
-    <row r="610" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="610" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B610" s="16"/>
     </row>
-    <row r="611" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="611" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B611" s="16"/>
     </row>
-    <row r="612" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="612" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B612" s="16"/>
     </row>
-    <row r="613" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="613" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B613" s="16"/>
     </row>
-    <row r="614" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="614" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B614" s="16"/>
     </row>
-    <row r="615" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="615" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B615" s="16"/>
     </row>
-    <row r="616" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="616" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B616" s="16"/>
     </row>
-    <row r="617" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="617" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B617" s="16"/>
     </row>
-    <row r="618" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="618" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B618" s="16"/>
     </row>
-    <row r="619" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="619" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B619" s="16"/>
     </row>
-    <row r="620" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="620" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B620" s="16"/>
     </row>
-    <row r="621" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="621" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B621" s="16"/>
     </row>
-    <row r="622" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="622" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B622" s="16"/>
     </row>
-    <row r="623" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="623" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B623" s="16"/>
     </row>
-    <row r="624" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="624" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B624" s="16"/>
     </row>
-    <row r="625" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="625" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B625" s="16"/>
     </row>
-    <row r="626" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="626" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B626" s="16"/>
     </row>
-    <row r="627" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="627" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B627" s="16"/>
     </row>
-    <row r="628" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="628" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B628" s="16"/>
     </row>
-    <row r="629" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="629" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B629" s="16"/>
     </row>
-    <row r="630" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="630" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B630" s="16"/>
     </row>
-    <row r="631" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="631" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B631" s="16"/>
     </row>
-    <row r="632" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="632" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B632" s="16"/>
     </row>
-    <row r="633" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="633" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B633" s="16"/>
     </row>
-    <row r="634" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="634" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B634" s="16"/>
     </row>
-    <row r="635" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="635" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B635" s="16"/>
     </row>
-    <row r="636" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="636" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B636" s="16"/>
     </row>
-    <row r="637" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="637" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B637" s="16"/>
     </row>
-    <row r="638" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="638" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B638" s="16"/>
     </row>
-    <row r="639" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="639" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B639" s="16"/>
     </row>
-    <row r="640" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="640" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B640" s="16"/>
     </row>
-    <row r="641" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="641" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B641" s="16"/>
     </row>
-    <row r="642" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="642" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B642" s="16"/>
     </row>
-    <row r="643" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="643" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B643" s="16"/>
     </row>
-    <row r="644" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="644" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B644" s="16"/>
     </row>
-    <row r="645" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="645" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B645" s="16"/>
     </row>
-    <row r="646" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="646" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B646" s="16"/>
     </row>
-    <row r="647" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="647" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B647" s="16"/>
     </row>
-    <row r="648" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="648" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B648" s="16"/>
     </row>
-    <row r="649" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="649" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B649" s="16"/>
     </row>
-    <row r="650" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="650" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B650" s="16"/>
     </row>
-    <row r="651" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="651" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B651" s="16"/>
     </row>
-    <row r="652" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="652" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B652" s="16"/>
     </row>
-    <row r="653" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="653" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B653" s="16"/>
     </row>
-    <row r="654" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="654" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B654" s="16"/>
     </row>
-    <row r="655" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="655" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B655" s="16"/>
     </row>
-    <row r="656" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="656" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B656" s="16"/>
     </row>
-    <row r="657" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="657" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B657" s="16"/>
     </row>
-    <row r="658" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="658" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B658" s="16"/>
     </row>
-    <row r="659" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="659" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B659" s="16"/>
     </row>
-    <row r="660" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="660" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B660" s="16"/>
     </row>
-    <row r="661" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="661" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B661" s="16"/>
     </row>
-    <row r="662" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="662" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B662" s="16"/>
     </row>
-    <row r="663" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="663" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B663" s="16"/>
     </row>
-    <row r="664" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="664" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B664" s="16"/>
     </row>
-    <row r="665" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="665" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B665" s="16"/>
     </row>
-    <row r="666" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="666" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B666" s="16"/>
     </row>
-    <row r="667" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="667" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B667" s="16"/>
     </row>
-    <row r="668" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="668" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B668" s="16"/>
     </row>
-    <row r="669" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="669" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B669" s="16"/>
     </row>
-    <row r="670" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="670" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B670" s="16"/>
     </row>
-    <row r="671" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="671" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B671" s="16"/>
     </row>
-    <row r="672" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="672" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B672" s="16"/>
     </row>
-    <row r="673" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="673" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B673" s="16"/>
     </row>
-    <row r="674" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="674" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B674" s="16"/>
     </row>
-    <row r="675" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="675" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B675" s="16"/>
     </row>
-    <row r="676" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="676" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B676" s="16"/>
     </row>
-    <row r="677" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="677" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B677" s="16"/>
     </row>
-    <row r="678" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="678" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B678" s="16"/>
     </row>
-    <row r="679" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="679" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B679" s="16"/>
     </row>
-    <row r="680" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="680" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B680" s="16"/>
     </row>
-    <row r="681" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="681" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B681" s="16"/>
     </row>
-    <row r="682" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="682" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B682" s="16"/>
     </row>
-    <row r="683" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="683" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B683" s="16"/>
     </row>
-    <row r="684" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="684" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B684" s="16"/>
     </row>
-    <row r="685" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="685" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B685" s="16"/>
     </row>
-    <row r="686" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="686" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B686" s="16"/>
     </row>
-    <row r="687" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="687" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B687" s="16"/>
     </row>
-    <row r="688" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="688" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B688" s="16"/>
     </row>
-    <row r="689" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="689" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B689" s="16"/>
     </row>
-    <row r="690" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="690" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B690" s="16"/>
     </row>
-    <row r="691" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="691" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B691" s="16"/>
     </row>
-    <row r="692" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="692" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B692" s="16"/>
     </row>
-    <row r="693" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B693" s="16"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:F429">
-    <sortCondition ref="B2:B429"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F428">
+    <sortCondition ref="B2:B428"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
